--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cck-Cckar.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cck-Cckar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cckar</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7297790000000001</v>
+        <v>1.862015666666667</v>
       </c>
       <c r="H2">
-        <v>2.189337</v>
+        <v>5.586047</v>
       </c>
       <c r="I2">
-        <v>0.2376649802178973</v>
+        <v>0.399282427039184</v>
       </c>
       <c r="J2">
-        <v>0.2376649802178973</v>
+        <v>0.3992824270391842</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.44918</v>
       </c>
       <c r="O2">
-        <v>0.5723540190164553</v>
+        <v>0.4607938481487409</v>
       </c>
       <c r="P2">
-        <v>0.5723540190164553</v>
+        <v>0.4607938481487409</v>
       </c>
       <c r="Q2">
-        <v>0.1092673770733334</v>
+        <v>0.2787933990511111</v>
       </c>
       <c r="R2">
-        <v>0.98340639366</v>
+        <v>2.50914059146</v>
       </c>
       <c r="S2">
-        <v>0.1360285066071799</v>
+        <v>0.1839868860535545</v>
       </c>
       <c r="T2">
-        <v>0.1360285066071799</v>
+        <v>0.1839868860535545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7297790000000001</v>
+        <v>1.862015666666667</v>
       </c>
       <c r="H3">
-        <v>2.189337</v>
+        <v>5.586047</v>
       </c>
       <c r="I3">
-        <v>0.2376649802178973</v>
+        <v>0.399282427039184</v>
       </c>
       <c r="J3">
-        <v>0.2376649802178973</v>
+        <v>0.3992824270391842</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.02028033333333333</v>
+        <v>0.1752053333333333</v>
       </c>
       <c r="N3">
-        <v>0.060841</v>
+        <v>0.525616</v>
       </c>
       <c r="O3">
-        <v>0.07752480268707457</v>
+        <v>0.5392061518512591</v>
       </c>
       <c r="P3">
-        <v>0.07752480268707457</v>
+        <v>0.5392061518512591</v>
       </c>
       <c r="Q3">
-        <v>0.01480016137966667</v>
+        <v>0.3262350755502222</v>
       </c>
       <c r="R3">
-        <v>0.133201452417</v>
+        <v>2.936115679952</v>
       </c>
       <c r="S3">
-        <v>0.01842493069701997</v>
+        <v>0.2152955409856296</v>
       </c>
       <c r="T3">
-        <v>0.01842493069701997</v>
+        <v>0.2152955409856296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7297790000000001</v>
+        <v>2.017090333333333</v>
       </c>
       <c r="H4">
-        <v>2.189337</v>
+        <v>6.051271</v>
       </c>
       <c r="I4">
-        <v>0.2376649802178973</v>
+        <v>0.4325359545939786</v>
       </c>
       <c r="J4">
-        <v>0.2376649802178973</v>
+        <v>0.4325359545939787</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09159099999999999</v>
+        <v>0.1497266666666667</v>
       </c>
       <c r="N4">
-        <v>0.274773</v>
+        <v>0.44918</v>
       </c>
       <c r="O4">
-        <v>0.3501211782964701</v>
+        <v>0.4607938481487409</v>
       </c>
       <c r="P4">
-        <v>0.3501211782964702</v>
+        <v>0.4607938481487409</v>
       </c>
       <c r="Q4">
-        <v>0.06684118838899999</v>
+        <v>0.3020122119755556</v>
       </c>
       <c r="R4">
-        <v>0.601570695501</v>
+        <v>2.71810990778</v>
       </c>
       <c r="S4">
-        <v>0.08321154291369746</v>
+        <v>0.1993099069800485</v>
       </c>
       <c r="T4">
-        <v>0.08321154291369746</v>
+        <v>0.1993099069800485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,75 +726,75 @@
         <v>2.017090333333333</v>
       </c>
       <c r="H5">
-        <v>6.051271000000001</v>
+        <v>6.051271</v>
       </c>
       <c r="I5">
-        <v>0.6568998753997833</v>
+        <v>0.4325359545939786</v>
       </c>
       <c r="J5">
-        <v>0.6568998753997835</v>
+        <v>0.4325359545939787</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1497266666666667</v>
+        <v>0.1752053333333333</v>
       </c>
       <c r="N5">
-        <v>0.44918</v>
+        <v>0.525616</v>
       </c>
       <c r="O5">
-        <v>0.5723540190164553</v>
+        <v>0.5392061518512591</v>
       </c>
       <c r="P5">
-        <v>0.5723540190164553</v>
+        <v>0.5392061518512591</v>
       </c>
       <c r="Q5">
-        <v>0.3020122119755556</v>
+        <v>0.3534049842151111</v>
       </c>
       <c r="R5">
-        <v>2.718109907780001</v>
+        <v>3.180644857936</v>
       </c>
       <c r="S5">
-        <v>0.3759792837764747</v>
+        <v>0.2332260476139301</v>
       </c>
       <c r="T5">
-        <v>0.3759792837764748</v>
+        <v>0.2332260476139302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.017090333333333</v>
+        <v>0.1819486666666667</v>
       </c>
       <c r="H6">
-        <v>6.051271000000001</v>
+        <v>0.5458460000000001</v>
       </c>
       <c r="I6">
-        <v>0.6568998753997833</v>
+        <v>0.0390162695855639</v>
       </c>
       <c r="J6">
-        <v>0.6568998753997835</v>
+        <v>0.03901626958556391</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,101 +803,101 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02028033333333333</v>
+        <v>0.1497266666666667</v>
       </c>
       <c r="N6">
-        <v>0.060841</v>
+        <v>0.44918</v>
       </c>
       <c r="O6">
-        <v>0.07752480268707457</v>
+        <v>0.4607938481487409</v>
       </c>
       <c r="P6">
-        <v>0.07752480268707457</v>
+        <v>0.4607938481487409</v>
       </c>
       <c r="Q6">
-        <v>0.04090726432344445</v>
+        <v>0.02724256736444445</v>
       </c>
       <c r="R6">
-        <v>0.368165378911</v>
+        <v>0.24518310628</v>
       </c>
       <c r="S6">
-        <v>0.05092603322553207</v>
+        <v>0.01797845700274067</v>
       </c>
       <c r="T6">
-        <v>0.05092603322553208</v>
+        <v>0.01797845700274068</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1819486666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.5458460000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.0390162695855639</v>
+      </c>
+      <c r="J7">
+        <v>0.03901626958556391</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.017090333333333</v>
-      </c>
-      <c r="H7">
-        <v>6.051271000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.6568998753997833</v>
-      </c>
-      <c r="J7">
-        <v>0.6568998753997835</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.09159099999999999</v>
+        <v>0.1752053333333333</v>
       </c>
       <c r="N7">
-        <v>0.274773</v>
+        <v>0.525616</v>
       </c>
       <c r="O7">
-        <v>0.3501211782964701</v>
+        <v>0.5392061518512591</v>
       </c>
       <c r="P7">
-        <v>0.3501211782964702</v>
+        <v>0.5392061518512591</v>
       </c>
       <c r="Q7">
-        <v>0.1847473207203333</v>
+        <v>0.03187837679288889</v>
       </c>
       <c r="R7">
-        <v>1.662725886483</v>
+        <v>0.286905391136</v>
       </c>
       <c r="S7">
-        <v>0.2299945583977765</v>
+        <v>0.02103781258282323</v>
       </c>
       <c r="T7">
-        <v>0.2299945583977766</v>
+        <v>0.02103781258282323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3237513333333333</v>
+        <v>0.6023503333333334</v>
       </c>
       <c r="H8">
-        <v>0.9712540000000001</v>
+        <v>1.807051</v>
       </c>
       <c r="I8">
-        <v>0.1054351443823192</v>
+        <v>0.1291653487812732</v>
       </c>
       <c r="J8">
-        <v>0.1054351443823192</v>
+        <v>0.1291653487812732</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,36 +933,36 @@
         <v>0.44918</v>
       </c>
       <c r="O8">
-        <v>0.5723540190164553</v>
+        <v>0.4607938481487409</v>
       </c>
       <c r="P8">
-        <v>0.5723540190164553</v>
+        <v>0.4607938481487409</v>
       </c>
       <c r="Q8">
-        <v>0.04847420796888889</v>
+        <v>0.09018790757555557</v>
       </c>
       <c r="R8">
-        <v>0.43626787172</v>
+        <v>0.8116911681800001</v>
       </c>
       <c r="S8">
-        <v>0.06034622863280065</v>
+        <v>0.05951859811239716</v>
       </c>
       <c r="T8">
-        <v>0.06034622863280065</v>
+        <v>0.05951859811239716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,108 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3237513333333333</v>
+        <v>0.6023503333333334</v>
       </c>
       <c r="H9">
-        <v>0.9712540000000001</v>
+        <v>1.807051</v>
       </c>
       <c r="I9">
-        <v>0.1054351443823192</v>
+        <v>0.1291653487812732</v>
       </c>
       <c r="J9">
-        <v>0.1054351443823192</v>
+        <v>0.1291653487812732</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02028033333333333</v>
+        <v>0.1752053333333333</v>
       </c>
       <c r="N9">
-        <v>0.060841</v>
+        <v>0.525616</v>
       </c>
       <c r="O9">
-        <v>0.07752480268707457</v>
+        <v>0.5392061518512591</v>
       </c>
       <c r="P9">
-        <v>0.07752480268707457</v>
+        <v>0.5392061518512591</v>
       </c>
       <c r="Q9">
-        <v>0.006565784957111112</v>
+        <v>0.1055349909351111</v>
       </c>
       <c r="R9">
-        <v>0.059092064614</v>
+        <v>0.9498149184160001</v>
       </c>
       <c r="S9">
-        <v>0.008173838764522516</v>
+        <v>0.06964675066887605</v>
       </c>
       <c r="T9">
-        <v>0.008173838764522516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.3237513333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.9712540000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.1054351443823192</v>
-      </c>
-      <c r="J10">
-        <v>0.1054351443823192</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.09159099999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.274773</v>
-      </c>
-      <c r="O10">
-        <v>0.3501211782964701</v>
-      </c>
-      <c r="P10">
-        <v>0.3501211782964702</v>
-      </c>
-      <c r="Q10">
-        <v>0.02965270837133333</v>
-      </c>
-      <c r="R10">
-        <v>0.266874375342</v>
-      </c>
-      <c r="S10">
-        <v>0.03691507698499605</v>
-      </c>
-      <c r="T10">
-        <v>0.03691507698499606</v>
+        <v>0.06964675066887605</v>
       </c>
     </row>
   </sheetData>
